--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H2">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I2">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J2">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45170379307354</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N2">
-        <v>1.45170379307354</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P2">
-        <v>0.156091865888787</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q2">
-        <v>1.853869083913742</v>
+        <v>15.940035325856</v>
       </c>
       <c r="R2">
-        <v>1.853869083913742</v>
+        <v>143.460317932704</v>
       </c>
       <c r="S2">
-        <v>5.22843769488958E-05</v>
+        <v>0.000394211792268552</v>
       </c>
       <c r="T2">
-        <v>5.22843769488958E-05</v>
+        <v>0.0003942117922685519</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H3">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I3">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J3">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.20742042878663</v>
+        <v>7.245227</v>
       </c>
       <c r="N3">
-        <v>7.20742042878663</v>
+        <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P3">
-        <v>0.7749650502685403</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q3">
-        <v>9.204091062823991</v>
+        <v>46.540266271752</v>
       </c>
       <c r="R3">
-        <v>9.204091062823991</v>
+        <v>418.862396445768</v>
       </c>
       <c r="S3">
-        <v>0.0002595815264283481</v>
+        <v>0.001150983759106428</v>
       </c>
       <c r="T3">
-        <v>0.0002595815264283481</v>
+        <v>0.001150983759106428</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H4">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I4">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J4">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.641192516667742</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N4">
-        <v>0.641192516667742</v>
+        <v>0.600563</v>
       </c>
       <c r="O4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P4">
-        <v>0.0689430838426727</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q4">
-        <v>0.8188219863850403</v>
+        <v>1.285920691096</v>
       </c>
       <c r="R4">
-        <v>0.8188219863850403</v>
+        <v>11.573286219864</v>
       </c>
       <c r="S4">
-        <v>2.309310714638955E-05</v>
+        <v>3.180200608024353E-05</v>
       </c>
       <c r="T4">
-        <v>2.309310714638955E-05</v>
+        <v>3.180200608024353E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3580.33884961302</v>
+        <v>6.423576</v>
       </c>
       <c r="H5">
-        <v>3580.33884961302</v>
+        <v>19.270728</v>
       </c>
       <c r="I5">
-        <v>0.939106281663183</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J5">
-        <v>0.939106281663183</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45170379307354</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N5">
-        <v>1.45170379307354</v>
+        <v>1.964485</v>
       </c>
       <c r="O5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P5">
-        <v>0.156091865888787</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q5">
-        <v>5197.591488471776</v>
+        <v>4.20633956612</v>
       </c>
       <c r="R5">
-        <v>5197.591488471776</v>
+        <v>37.85705609508</v>
       </c>
       <c r="S5">
-        <v>0.146586851772687</v>
+        <v>0.0001040266615068647</v>
       </c>
       <c r="T5">
-        <v>0.146586851772687</v>
+        <v>0.0001040266615068647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3580.33884961302</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H6">
-        <v>3580.33884961302</v>
+        <v>10741.933594</v>
       </c>
       <c r="I6">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J6">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.20742042878663</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N6">
-        <v>7.20742042878663</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P6">
-        <v>0.7749650502685403</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q6">
-        <v>25805.0073666793</v>
+        <v>8885.331210961996</v>
       </c>
       <c r="R6">
-        <v>25805.0073666793</v>
+        <v>79967.98089865797</v>
       </c>
       <c r="S6">
-        <v>0.7277745467766106</v>
+        <v>0.2197424453565277</v>
       </c>
       <c r="T6">
-        <v>0.7277745467766106</v>
+        <v>0.2197424453565276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3580.33884961302</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H7">
-        <v>3580.33884961302</v>
+        <v>10741.933594</v>
       </c>
       <c r="I7">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J7">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.641192516667742</v>
+        <v>7.245227</v>
       </c>
       <c r="N7">
-        <v>0.641192516667742</v>
+        <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P7">
-        <v>0.0689430838426727</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q7">
-        <v>2295.686477506661</v>
+        <v>25942.58243581861</v>
       </c>
       <c r="R7">
-        <v>2295.686477506661</v>
+        <v>233483.2419223675</v>
       </c>
       <c r="S7">
-        <v>0.06474488311388543</v>
+        <v>0.6415840184186994</v>
       </c>
       <c r="T7">
-        <v>0.06474488311388543</v>
+        <v>0.6415840184186992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.495626361418856</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H8">
-        <v>0.495626361418856</v>
+        <v>10741.933594</v>
       </c>
       <c r="I8">
-        <v>0.0001300004968570565</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J8">
-        <v>0.0001300004968570565</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.45170379307354</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N8">
-        <v>1.45170379307354</v>
+        <v>0.600563</v>
       </c>
       <c r="O8">
-        <v>0.156091865888787</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P8">
-        <v>0.156091865888787</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q8">
-        <v>0.7195026688189905</v>
+        <v>716.8008738903802</v>
       </c>
       <c r="R8">
-        <v>0.7195026688189905</v>
+        <v>6451.207865013422</v>
       </c>
       <c r="S8">
-        <v>2.029202012088735E-05</v>
+        <v>0.01772714748866573</v>
       </c>
       <c r="T8">
-        <v>2.029202012088735E-05</v>
+        <v>0.01772714748866572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.495626361418856</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H9">
-        <v>0.495626361418856</v>
+        <v>10741.933594</v>
       </c>
       <c r="I9">
-        <v>0.0001300004968570565</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J9">
-        <v>0.0001300004968570565</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.20742042878663</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N9">
-        <v>7.20742042878663</v>
+        <v>1.964485</v>
       </c>
       <c r="O9">
-        <v>0.7749650502685403</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P9">
-        <v>0.7749650502685403</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q9">
-        <v>3.572187562335448</v>
+        <v>2344.707490712121</v>
       </c>
       <c r="R9">
-        <v>3.572187562335448</v>
+        <v>21102.36741640909</v>
       </c>
       <c r="S9">
-        <v>0.000100745841581764</v>
+        <v>0.05798678129400494</v>
       </c>
       <c r="T9">
-        <v>0.000100745841581764</v>
+        <v>0.05798678129400493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.495626361418856</v>
+        <v>0.9157713333333334</v>
       </c>
       <c r="H10">
-        <v>0.495626361418856</v>
+        <v>2.747314</v>
       </c>
       <c r="I10">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="J10">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.641192516667742</v>
+        <v>2.481489333333333</v>
       </c>
       <c r="N10">
-        <v>0.641192516667742</v>
+        <v>7.444467999999999</v>
       </c>
       <c r="O10">
-        <v>0.0689430838426727</v>
+        <v>0.2345069082418988</v>
       </c>
       <c r="P10">
-        <v>0.0689430838426727</v>
+        <v>0.2345069082418987</v>
       </c>
       <c r="Q10">
-        <v>0.3177919140050322</v>
+        <v>2.272476795439111</v>
       </c>
       <c r="R10">
-        <v>0.3177919140050322</v>
+        <v>20.452291158952</v>
       </c>
       <c r="S10">
-        <v>8.962635154405157E-06</v>
+        <v>5.620044950374914E-05</v>
       </c>
       <c r="T10">
-        <v>8.962635154405157E-06</v>
+        <v>5.620044950374913E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>230.384395350604</v>
+        <v>0.9157713333333334</v>
       </c>
       <c r="H11">
-        <v>230.384395350604</v>
+        <v>2.747314</v>
       </c>
       <c r="I11">
-        <v>0.06042875882943625</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="J11">
-        <v>0.06042875882943625</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.45170379307354</v>
+        <v>7.245227</v>
       </c>
       <c r="N11">
-        <v>1.45170379307354</v>
+        <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.156091865888787</v>
+        <v>0.6846919551326144</v>
       </c>
       <c r="P11">
-        <v>0.156091865888787</v>
+        <v>0.6846919551326142</v>
       </c>
       <c r="Q11">
-        <v>334.4499005954258</v>
+        <v>6.634971190092667</v>
       </c>
       <c r="R11">
-        <v>334.4499005954258</v>
+        <v>59.71474071083401</v>
       </c>
       <c r="S11">
-        <v>0.009432437719030219</v>
+        <v>0.0001640889641100076</v>
       </c>
       <c r="T11">
-        <v>0.009432437719030219</v>
+        <v>0.0001640889641100075</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>230.384395350604</v>
+        <v>0.9157713333333334</v>
       </c>
       <c r="H12">
-        <v>230.384395350604</v>
+        <v>2.747314</v>
       </c>
       <c r="I12">
-        <v>0.06042875882943625</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="J12">
-        <v>0.06042875882943625</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>7.20742042878663</v>
+        <v>0.2001876666666667</v>
       </c>
       <c r="N12">
-        <v>7.20742042878663</v>
+        <v>0.600563</v>
       </c>
       <c r="O12">
-        <v>0.7749650502685403</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="P12">
-        <v>0.7749650502685403</v>
+        <v>0.01891823194544989</v>
       </c>
       <c r="Q12">
-        <v>1660.477197523599</v>
+        <v>0.1833261264202222</v>
       </c>
       <c r="R12">
-        <v>1660.477197523599</v>
+        <v>1.649935137782</v>
       </c>
       <c r="S12">
-        <v>0.04683017612391957</v>
+        <v>4.533824385479271E-06</v>
       </c>
       <c r="T12">
-        <v>0.04683017612391957</v>
+        <v>4.533824385479271E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>230.384395350604</v>
+        <v>0.9157713333333334</v>
       </c>
       <c r="H13">
-        <v>230.384395350604</v>
+        <v>2.747314</v>
       </c>
       <c r="I13">
-        <v>0.06042875882943625</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="J13">
-        <v>0.06042875882943625</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.641192516667742</v>
+        <v>0.6548283333333333</v>
       </c>
       <c r="N13">
-        <v>0.641192516667742</v>
+        <v>1.964485</v>
       </c>
       <c r="O13">
-        <v>0.0689430838426727</v>
+        <v>0.06188290468003712</v>
       </c>
       <c r="P13">
-        <v>0.0689430838426727</v>
+        <v>0.06188290468003711</v>
       </c>
       <c r="Q13">
-        <v>147.7207502558298</v>
+        <v>0.5996730159211111</v>
       </c>
       <c r="R13">
-        <v>147.7207502558298</v>
+        <v>5.397057143290001</v>
       </c>
       <c r="S13">
-        <v>0.004166144986486472</v>
+        <v>1.483046740792931E-05</v>
       </c>
       <c r="T13">
-        <v>0.004166144986486472</v>
+        <v>1.48304674079293E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>233.243637</v>
+      </c>
+      <c r="H14">
+        <v>699.7309110000001</v>
+      </c>
+      <c r="I14">
+        <v>0.0610389295177331</v>
+      </c>
+      <c r="J14">
+        <v>0.06103892951773311</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.481489333333333</v>
+      </c>
+      <c r="N14">
+        <v>7.444467999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2345069082418988</v>
+      </c>
+      <c r="P14">
+        <v>0.2345069082418987</v>
+      </c>
+      <c r="Q14">
+        <v>578.791597283372</v>
+      </c>
+      <c r="R14">
+        <v>5209.124375550348</v>
+      </c>
+      <c r="S14">
+        <v>0.01431405064359876</v>
+      </c>
+      <c r="T14">
+        <v>0.01431405064359876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>233.243637</v>
+      </c>
+      <c r="H15">
+        <v>699.7309110000001</v>
+      </c>
+      <c r="I15">
+        <v>0.0610389295177331</v>
+      </c>
+      <c r="J15">
+        <v>0.06103892951773311</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.245227</v>
+      </c>
+      <c r="N15">
+        <v>21.735681</v>
+      </c>
+      <c r="O15">
+        <v>0.6846919551326144</v>
+      </c>
+      <c r="P15">
+        <v>0.6846919551326142</v>
+      </c>
+      <c r="Q15">
+        <v>1689.903096370599</v>
+      </c>
+      <c r="R15">
+        <v>15209.12786733539</v>
+      </c>
+      <c r="S15">
+        <v>0.04179286399069852</v>
+      </c>
+      <c r="T15">
+        <v>0.04179286399069852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>233.243637</v>
+      </c>
+      <c r="H16">
+        <v>699.7309110000001</v>
+      </c>
+      <c r="I16">
+        <v>0.0610389295177331</v>
+      </c>
+      <c r="J16">
+        <v>0.06103892951773311</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2001876666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.600563</v>
+      </c>
+      <c r="O16">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="P16">
+        <v>0.01891823194544989</v>
+      </c>
+      <c r="Q16">
+        <v>46.69249945587701</v>
+      </c>
+      <c r="R16">
+        <v>420.232495102893</v>
+      </c>
+      <c r="S16">
+        <v>0.001154748626318443</v>
+      </c>
+      <c r="T16">
+        <v>0.001154748626318443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>233.243637</v>
+      </c>
+      <c r="H17">
+        <v>699.7309110000001</v>
+      </c>
+      <c r="I17">
+        <v>0.0610389295177331</v>
+      </c>
+      <c r="J17">
+        <v>0.06103892951773311</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6548283333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.964485</v>
+      </c>
+      <c r="O17">
+        <v>0.06188290468003712</v>
+      </c>
+      <c r="P17">
+        <v>0.06188290468003711</v>
+      </c>
+      <c r="Q17">
+        <v>152.734542077315</v>
+      </c>
+      <c r="R17">
+        <v>1374.610878695835</v>
+      </c>
+      <c r="S17">
+        <v>0.003777266257117381</v>
+      </c>
+      <c r="T17">
+        <v>0.003777266257117381</v>
       </c>
     </row>
   </sheetData>
